--- a/log_history/Y4_B2526_Cardiology_checklist1761804257786_08d8a653bec8cea6d369ec91345a0700ef109c09ff74e4a7475d684083459158.xlsx
+++ b/log_history/Y4_B2526_Cardiology_checklist1761804257786_08d8a653bec8cea6d369ec91345a0700ef109c09ff74e4a7475d684083459158.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E2ED69-77E7-470A-B6E1-E8C4ACFBF1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC01FE-2506-47E0-8671-C4513152F4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,6 +263,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -299,11 +302,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,25 +651,26 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -674,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -684,17 +690,17 @@
       <c r="C2" s="1">
         <v>45952</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -704,17 +710,17 @@
       <c r="C3" s="1">
         <v>45952</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -724,17 +730,17 @@
       <c r="C4" s="1">
         <v>45952</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -744,17 +750,17 @@
       <c r="C5" s="1">
         <v>45952</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -764,17 +770,17 @@
       <c r="C6" s="1">
         <v>45952</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -784,17 +790,17 @@
       <c r="C7" s="1">
         <v>45952</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -804,17 +810,17 @@
       <c r="C8" s="1">
         <v>45952</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -824,17 +830,17 @@
       <c r="C9" s="1">
         <v>45952</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -844,17 +850,17 @@
       <c r="C10" s="1">
         <v>45952</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -864,17 +870,17 @@
       <c r="C11" s="1">
         <v>45952</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -884,17 +890,17 @@
       <c r="C12" s="1">
         <v>45952</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -904,17 +910,17 @@
       <c r="C13" s="1">
         <v>45952</v>
       </c>
-      <c r="D13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -924,17 +930,17 @@
       <c r="C14" s="1">
         <v>45952</v>
       </c>
-      <c r="D14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -944,17 +950,17 @@
       <c r="C15" s="1">
         <v>45952</v>
       </c>
-      <c r="D15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -964,17 +970,17 @@
       <c r="C16" s="1">
         <v>45952</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -984,17 +990,17 @@
       <c r="C17" s="1">
         <v>45952</v>
       </c>
-      <c r="D17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1004,17 +1010,17 @@
       <c r="C18" s="1">
         <v>45952</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1024,17 +1030,17 @@
       <c r="C19" s="1">
         <v>45952</v>
       </c>
-      <c r="D19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1044,17 +1050,17 @@
       <c r="C20" s="1">
         <v>45952</v>
       </c>
-      <c r="D20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1064,17 +1070,17 @@
       <c r="C21" s="1">
         <v>45952</v>
       </c>
-      <c r="D21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1084,17 +1090,17 @@
       <c r="C22" s="1">
         <v>45952</v>
       </c>
-      <c r="D22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1104,17 +1110,17 @@
       <c r="C23" s="1">
         <v>45952</v>
       </c>
-      <c r="D23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1124,17 +1130,17 @@
       <c r="C24" s="1">
         <v>45952</v>
       </c>
-      <c r="D24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1144,17 +1150,17 @@
       <c r="C25" s="1">
         <v>45952</v>
       </c>
-      <c r="D25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1164,17 +1170,17 @@
       <c r="C26" s="1">
         <v>45952</v>
       </c>
-      <c r="D26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1184,17 +1190,17 @@
       <c r="C27" s="1">
         <v>45952</v>
       </c>
-      <c r="D27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1204,17 +1210,17 @@
       <c r="C28" s="1">
         <v>45952</v>
       </c>
-      <c r="D28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1224,17 +1230,17 @@
       <c r="C29" s="1">
         <v>45952</v>
       </c>
-      <c r="D29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1244,17 +1250,17 @@
       <c r="C30" s="1">
         <v>45952</v>
       </c>
-      <c r="D30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1264,17 +1270,17 @@
       <c r="C31" s="1">
         <v>45952</v>
       </c>
-      <c r="D31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1284,17 +1290,17 @@
       <c r="C32" s="1">
         <v>45952</v>
       </c>
-      <c r="D32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1304,17 +1310,17 @@
       <c r="C33" s="1">
         <v>45952</v>
       </c>
-      <c r="D33" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1324,17 +1330,17 @@
       <c r="C34" s="1">
         <v>45952</v>
       </c>
-      <c r="D34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1344,17 +1350,17 @@
       <c r="C35" s="1">
         <v>45952</v>
       </c>
-      <c r="D35" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1364,17 +1370,17 @@
       <c r="C36" s="1">
         <v>45952</v>
       </c>
-      <c r="D36" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1384,17 +1390,17 @@
       <c r="C37" s="1">
         <v>45952</v>
       </c>
-      <c r="D37" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1404,17 +1410,17 @@
       <c r="C38" s="1">
         <v>45952</v>
       </c>
-      <c r="D38" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1424,17 +1430,17 @@
       <c r="C39" s="1">
         <v>45952</v>
       </c>
-      <c r="D39" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1444,17 +1450,17 @@
       <c r="C40" s="1">
         <v>45952</v>
       </c>
-      <c r="D40" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1464,17 +1470,17 @@
       <c r="C41" s="1">
         <v>45952</v>
       </c>
-      <c r="D41" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1484,17 +1490,17 @@
       <c r="C42" s="1">
         <v>45952</v>
       </c>
-      <c r="D42" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1504,17 +1510,17 @@
       <c r="C43" s="1">
         <v>45952</v>
       </c>
-      <c r="D43" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1524,17 +1530,17 @@
       <c r="C44" s="1">
         <v>45952</v>
       </c>
-      <c r="D44" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1544,17 +1550,17 @@
       <c r="C45" s="1">
         <v>45952</v>
       </c>
-      <c r="D45" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1564,17 +1570,17 @@
       <c r="C46" s="1">
         <v>45952</v>
       </c>
-      <c r="D46" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1584,17 +1590,17 @@
       <c r="C47" s="1">
         <v>45952</v>
       </c>
-      <c r="D47" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1604,17 +1610,17 @@
       <c r="C48" s="1">
         <v>45952</v>
       </c>
-      <c r="D48" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1624,17 +1630,17 @@
       <c r="C49" s="1">
         <v>45952</v>
       </c>
-      <c r="D49" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1644,17 +1650,17 @@
       <c r="C50" s="1">
         <v>45952</v>
       </c>
-      <c r="D50" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1664,17 +1670,17 @@
       <c r="C51" s="1">
         <v>45952</v>
       </c>
-      <c r="D51" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -1684,17 +1690,17 @@
       <c r="C52" s="1">
         <v>45952</v>
       </c>
-      <c r="D52" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1704,17 +1710,17 @@
       <c r="C53" s="1">
         <v>45952</v>
       </c>
-      <c r="D53" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -1724,17 +1730,17 @@
       <c r="C54" s="1">
         <v>45952</v>
       </c>
-      <c r="D54" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -1744,17 +1750,17 @@
       <c r="C55" s="1">
         <v>45952</v>
       </c>
-      <c r="D55" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -1764,17 +1770,17 @@
       <c r="C56" s="1">
         <v>45952</v>
       </c>
-      <c r="D56" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -1784,17 +1790,17 @@
       <c r="C57" s="1">
         <v>45952</v>
       </c>
-      <c r="D57" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -1804,17 +1810,17 @@
       <c r="C58" s="1">
         <v>45952</v>
       </c>
-      <c r="D58" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1824,17 +1830,17 @@
       <c r="C59" s="1">
         <v>45952</v>
       </c>
-      <c r="D59" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -1844,17 +1850,17 @@
       <c r="C60" s="1">
         <v>45952</v>
       </c>
-      <c r="D60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -1864,17 +1870,17 @@
       <c r="C61" s="1">
         <v>45952</v>
       </c>
-      <c r="D61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="D61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -1884,17 +1890,17 @@
       <c r="C62" s="1">
         <v>45952</v>
       </c>
-      <c r="D62" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D62" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -1904,17 +1910,17 @@
       <c r="C63" s="1">
         <v>45952</v>
       </c>
-      <c r="D63" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -1924,17 +1930,17 @@
       <c r="C64" s="1">
         <v>45952</v>
       </c>
-      <c r="D64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1944,17 +1950,17 @@
       <c r="C65" s="1">
         <v>45952</v>
       </c>
-      <c r="D65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="D65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -1964,17 +1970,17 @@
       <c r="C66" s="1">
         <v>45952</v>
       </c>
-      <c r="D66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="D66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -1984,17 +1990,17 @@
       <c r="C67" s="1">
         <v>45952</v>
       </c>
-      <c r="D67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D67" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2004,17 +2010,17 @@
       <c r="C68" s="1">
         <v>45952</v>
       </c>
-      <c r="D68" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="D68" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2024,17 +2030,17 @@
       <c r="C69" s="1">
         <v>45952</v>
       </c>
-      <c r="D69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2044,17 +2050,17 @@
       <c r="C70" s="1">
         <v>45952</v>
       </c>
-      <c r="D70" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="D70" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2064,10 +2070,10 @@
       <c r="C71" s="1">
         <v>45952</v>
       </c>
-      <c r="D71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="D71" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F71" t="s">
